--- a/reliefF算法/test1.xlsx
+++ b/reliefF算法/test1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\reliefF算法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\硕士期间\光纤传感\数据\gittry\reliefF算法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F5CC03-A735-458A-B99E-4A1E6FC2F13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C5EAC2-75AE-4272-945D-AF44BD1887D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32835" yWindow="60" windowWidth="23355" windowHeight="9075" xr2:uid="{8914F63F-327B-4F76-B6A3-1743C4242E5D}"/>
+    <workbookView xWindow="-32835" yWindow="60" windowWidth="23355" windowHeight="9075" xr2:uid="{52E00CA1-8063-439F-817B-B622A71CFF16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,91 +36,69 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ave_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>var_str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>step_energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>var_mean_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>peakindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mean_xocrr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>timew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lr_ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cave1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cave2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cave3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>timepdist2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mean_bw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mean_peak_low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8618F-0615-4384-A9E2-A2378912ED45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F74B08-F7D0-4960-8EB5-FCFC8623133F}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
